--- a/biology/Botanique/Rhodotorula/Rhodotorula.xlsx
+++ b/biology/Botanique/Rhodotorula/Rhodotorula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhodotorula est un genre de levures basidiomycètes pigmentées unicellulaires, appartenant à la famille des Sporidiobolaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Photos</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Colonies de Rhodotorula glutinis, incubées à 30 °C pendant 48h, sur une gélose dextrosée à la pomme de terre.
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 octobre 2019)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 octobre 2019) :
 Rhodotorula acuta (Goto) Rodr. Mir. &amp; Weijman, 1988
 Rhodotorula alborubescens (Derx) Q. M. Wang, F. Y. Bai, M. Groenew. &amp; Boekhout, 2015
 Rhodotorula araucariae Grinb. &amp; Yarrow, 1970
@@ -590,7 +606,7 @@
 Rhodotorula vuilleminii Saëz, 1968
 Rhodotorula yunnanensis K. Y. Xu, 1986
 Rhodotorula zsoltii Galgoczy &amp; R. O. Novak, 1965
-Selon Index Fungorum                                      (9 octobre 2019)[4] :
+Selon Index Fungorum                                      (9 octobre 2019) :
 Rhodotorula aclotiana (Kuff.) F.C. Harrison 1928
 Rhodotorula acuta (Goto) Rodr. Mir. &amp; Weijman 1988
 Rhodotorula alborubescens (Derx) Q.M. Wang, F.Y. Bai, M. Groenew. &amp; Boekhout 2015
